--- a/03 - Documento ABET/CatalogoEntidades.xlsx
+++ b/03 - Documento ABET/CatalogoEntidades.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t xml:space="preserve">Entidad </t>
   </si>
@@ -60,9 +60,6 @@
     <t>PictureModel</t>
   </si>
   <si>
-    <t>Representa el modelo del lenguaje Picture</t>
-  </si>
-  <si>
     <t>RuleDefinition</t>
   </si>
   <si>
@@ -127,6 +124,27 @@
   </si>
   <si>
     <t>Representa una forma rectangular con bordes biselados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validator </t>
+  </si>
+  <si>
+    <t>Corresponde a la entidad responsable de validar elementos del metamodelo con la especificación de picture</t>
+  </si>
+  <si>
+    <t>XMIMetamodelLoader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corresponde a la entidad responsable de cargar al sistema el metamodelo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSLLoader </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corresponde a la entidad responsable de cargar la implementación del lenguaje y transformarlo en un modelo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Representa el modelo del lenguaje Picture obtenido de la especificación del usuario </t>
   </si>
 </sst>
 </file>
@@ -196,8 +214,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -214,17 +242,27 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="21">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -554,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="A1:B18"/>
+      <selection sqref="A1:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -584,130 +622,154 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>35</v>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
